--- a/Banco Central/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Trimestral.xlsx
+++ b/Banco Central/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Trimestral.xlsx
@@ -806,7 +806,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>245.6447</v>
+        <v>245.645</v>
       </c>
     </row>
   </sheetData>
